--- a/production/data/genres.xlsx
+++ b/production/data/genres.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="175">
   <si>
     <t>poetid</t>
   </si>
@@ -495,9 +495,6 @@
   </si>
   <si>
     <t>notes</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>Choral Dance</t>
@@ -612,9 +609,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="70">
+  <cellStyleXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -701,7 +700,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="70">
+  <cellStyles count="72">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -737,6 +736,7 @@
     <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -771,6 +771,7 @@
     <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1041,7 +1042,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1049,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D162" sqref="D162:D163"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A78" activeCellId="3" sqref="A71:XFD71 A73:XFD73 A75:XFD75 A78:XFD78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1084,80 +1085,86 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="B2">
+        <f>VLOOKUP(A2,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>93</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3">
+        <f>VLOOKUP(A3,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>93</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3">
         <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>56</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="6">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <f>VLOOKUP(A4,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>37</v>
+      <c r="A5" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B5">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>25</v>
+        <f>VLOOKUP(A5,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>93</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <f>VLOOKUP(A6,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>94</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <f>VLOOKUP(A7,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>94</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>99</v>
@@ -1168,170 +1175,178 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <f>VLOOKUP(A8,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>95</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="B10">
-        <v>31</v>
+        <f>VLOOKUP(A10,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>96</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <f>VLOOKUP(A11,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>96</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>12</v>
+      <c r="A12" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <f>VLOOKUP(A13,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="B14">
+        <f>VLOOKUP(A14,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14">
         <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <f>VLOOKUP(A15,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>98</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
-        <v>38</v>
+      <c r="A16" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B16">
-        <v>58</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>99</v>
+        <f>VLOOKUP(A16,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>98</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <f>VLOOKUP(A17,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>98</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
         <v>23</v>
       </c>
-      <c r="B18">
-        <v>27</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>25</v>
@@ -1342,13 +1357,13 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="4" t="s">
-        <v>40</v>
+      <c r="A20" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B20">
-        <v>60</v>
-      </c>
-      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D20">
@@ -1357,70 +1372,70 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="6">
-        <v>62</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22">
-        <v>63</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22">
-        <v>11</v>
-      </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
+      <c r="A23" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>65</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="4" t="s">
-        <v>42</v>
+      <c r="A24" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>65</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>99</v>
+        <v>31</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>25</v>
@@ -1430,55 +1445,57 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="4" t="s">
-        <v>72</v>
+      <c r="A26" t="s">
+        <v>12</v>
       </c>
       <c r="B26">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="4" t="s">
-        <v>72</v>
+      <c r="A27" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B27">
-        <v>55</v>
-      </c>
-      <c r="C27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28">
+        <f>VLOOKUP(A28,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28">
-        <v>55</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-    </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="4" t="s">
-        <v>72</v>
+      <c r="A29" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B29">
-        <v>55</v>
-      </c>
-      <c r="C29" s="4" t="s">
+        <f>VLOOKUP(A29,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D29">
@@ -1487,164 +1504,173 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <f>VLOOKUP(A30,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>100</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <f>VLOOKUP(A31,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>100</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="4" t="s">
-        <v>43</v>
+      <c r="A32" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B32">
-        <v>76</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>25</v>
+        <f>VLOOKUP(A32,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="4" t="s">
-        <v>44</v>
+      <c r="A33" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B33">
-        <v>77</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>99</v>
+        <f>VLOOKUP(A33,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D33">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <f>VLOOKUP(A34,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>100</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <f>VLOOKUP(A35,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>100</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <f>VLOOKUP(A36,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>100</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B38">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B39">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="B40">
-        <v>16</v>
+        <f>VLOOKUP(A40,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>101</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D40">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="B41">
-        <v>17</v>
+        <f>VLOOKUP(A41,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>102</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>25</v>
@@ -1654,13 +1680,13 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="1" t="s">
-        <v>19</v>
+      <c r="A42" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B42">
-        <v>17</v>
-      </c>
-      <c r="C42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D42">
@@ -1669,10 +1695,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>25</v>
@@ -1683,94 +1709,99 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B44">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="D44">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="B45">
-        <v>25</v>
+        <f>VLOOKUP(A45,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>104</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="D45">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="6" customFormat="1">
-      <c r="A46" s="4" t="s">
-        <v>45</v>
+      <c r="A46" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B46">
-        <v>81</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>25</v>
+        <f>VLOOKUP(A46,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>104</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <f>VLOOKUP(A47,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>105</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D47">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <f>VLOOKUP(A48,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>107</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D48">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="B49">
-        <v>26</v>
+        <f>VLOOKUP(A49,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>107</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B50">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>25</v>
@@ -1780,426 +1811,433 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="4" t="s">
-        <v>46</v>
+      <c r="A51" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B51">
-        <v>83</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>30</v>
+        <f>VLOOKUP(A51,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D51">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="4" t="s">
-        <v>46</v>
+      <c r="A52" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B52">
-        <v>83</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>100</v>
+        <f>VLOOKUP(A52,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D52">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="1" t="s">
-        <v>4</v>
+      <c r="A53" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B53">
+        <v>60</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53">
         <v>2</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53">
-        <v>10</v>
-      </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="4" t="s">
-        <v>47</v>
+      <c r="A54" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B54">
-        <v>84</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>99</v>
+        <f>VLOOKUP(A54,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>109</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D54">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55">
-        <v>84</v>
+        <v>61</v>
+      </c>
+      <c r="B55" s="6">
+        <v>62</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B56">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <f>VLOOKUP(A57,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>111</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="1" t="s">
-        <v>9</v>
+      <c r="A58" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B58">
-        <v>7</v>
-      </c>
-      <c r="C58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59">
+        <v>65</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D58">
+      <c r="D59">
         <v>11</v>
-      </c>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59">
-        <v>6</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
       </c>
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <f>VLOOKUP(A60,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>112</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61">
-        <v>6</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>34</v>
+      <c r="A61" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="6">
+        <f>VLOOKUP(A61,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>113</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="B62">
-        <v>6</v>
+        <f>VLOOKUP(A62,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>114</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D62">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="B63">
-        <v>6</v>
+        <f>VLOOKUP(A63,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>114</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D63">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <f>VLOOKUP(A64,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>114</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="D64">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="4" t="s">
-        <v>49</v>
+      <c r="A65" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B65">
-        <v>90</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>33</v>
+        <f>VLOOKUP(A65,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>114</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="B66">
-        <f>VLOOKUP(A66,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D66">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B67">
         <f>VLOOKUP(A67,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="D67">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="B68">
         <f>VLOOKUP(A68,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="D68">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="B69">
         <f>VLOOKUP(A69,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D69">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="1" t="s">
-        <v>103</v>
+      <c r="A70" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="B70">
         <f>VLOOKUP(A70,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" s="3"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="1" t="s">
-        <v>103</v>
+      <c r="A71" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="B71">
         <f>VLOOKUP(A71,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D71">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="1" t="s">
-        <v>104</v>
+      <c r="A72" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="B72">
         <f>VLOOKUP(A72,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="D72">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="1" t="s">
-        <v>105</v>
+      <c r="A73" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="B73">
         <f>VLOOKUP(A73,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D73">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F73" s="3"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="1" t="s">
-        <v>105</v>
+      <c r="A74" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="B74">
         <f>VLOOKUP(A74,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F74" s="3"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="1" t="s">
-        <v>106</v>
+      <c r="A75" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="B75">
         <f>VLOOKUP(A75,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D75">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F75" s="3"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="1" t="s">
-        <v>106</v>
+      <c r="A76" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="B76">
         <f>VLOOKUP(A76,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="B77">
-        <f>VLOOKUP(A77,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D77">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="B78">
-        <f>VLOOKUP(A78,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>25</v>
@@ -2210,59 +2248,59 @@
       <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="1" t="s">
-        <v>107</v>
+      <c r="A79" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="B79">
-        <f>VLOOKUP(A79,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>98</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>28</v>
+        <v>76</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D79">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F79" s="3"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B80">
-        <v>99</v>
+        <f>VLOOKUP(A80,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>119</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" s="3"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B81">
         <f>VLOOKUP(A81,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="D81">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F81" s="3"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B82">
         <f>VLOOKUP(A82,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>25</v>
@@ -2273,140 +2311,130 @@
       <c r="F82" s="3"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="1" t="s">
-        <v>109</v>
+      <c r="A83" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B83">
-        <f>VLOOKUP(A83,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>100</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>30</v>
+        <v>77</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="D83">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F83" s="3"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="B84">
-        <f>VLOOKUP(A84,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D84">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F84" s="3"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>109</v>
+        <v>3</v>
       </c>
       <c r="B85">
-        <f>VLOOKUP(A85,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D85">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F85" s="3"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>109</v>
+        <v>3</v>
       </c>
       <c r="B86">
-        <f>VLOOKUP(A86,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="D86">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F86" s="3"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>109</v>
+        <v>3</v>
       </c>
       <c r="B87">
-        <f>VLOOKUP(A87,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="D87">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B88">
         <f>VLOOKUP(A88,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D88">
-        <v>4</v>
-      </c>
-      <c r="F88" s="3"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <f>VLOOKUP(A89,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D89">
-        <v>12</v>
-      </c>
-      <c r="F89" s="3"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="B90">
-        <f>VLOOKUP(A90,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D90">
-        <v>3</v>
-      </c>
-      <c r="F90" s="3"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="B91">
-        <f>VLOOKUP(A91,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>25</v>
@@ -2414,30 +2442,28 @@
       <c r="D91">
         <v>2</v>
       </c>
-      <c r="F91" s="3"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="B92">
-        <f>VLOOKUP(A92,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="D92">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B93">
         <f>VLOOKUP(A93,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>28</v>
@@ -2448,41 +2474,39 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B94">
         <f>VLOOKUP(A94,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="B95">
-        <f>VLOOKUP(A95,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="B96">
-        <f>VLOOKUP(A96,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>99</v>
@@ -2491,28 +2515,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="B97">
         <f>VLOOKUP(A97,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D97">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="6" customFormat="1">
       <c r="A98" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B98">
-        <f>VLOOKUP(A98,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>25</v>
@@ -2521,211 +2544,198 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="B99">
-        <f>VLOOKUP(A99,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="D99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="B100">
-        <f>VLOOKUP(A100,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="D100">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B101">
         <f>VLOOKUP(A101,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D101">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" s="6" customFormat="1">
-      <c r="A102" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B102" s="6">
-        <f>VLOOKUP(A102,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>113</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>33</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B102">
+        <v>81</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D102">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="B103">
-        <f>VLOOKUP(A103,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="D103">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="B104">
-        <f>VLOOKUP(A104,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D104">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="B105">
-        <f>VLOOKUP(A105,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="D105">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B106">
         <f>VLOOKUP(A106,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D106">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B107">
         <f>VLOOKUP(A107,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="D107">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="1" t="s">
-        <v>122</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="B108">
-        <f>VLOOKUP(A108,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>116</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D108">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="1" t="s">
-        <v>122</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="B109">
-        <f>VLOOKUP(A109,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>116</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>171</v>
+        <v>83</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D109">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="1" t="s">
-        <v>122</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="B110">
-        <f>VLOOKUP(A110,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>116</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>170</v>
+        <v>83</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="D110">
-        <v>19</v>
-      </c>
-      <c r="E110" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="B111">
-        <f>VLOOKUP(A111,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D111">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B112">
         <f>VLOOKUP(A112,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>33</v>
@@ -2736,251 +2746,250 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B113">
         <f>VLOOKUP(A113,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D113">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B114">
         <f>VLOOKUP(A114,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D114">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <f>VLOOKUP(A115,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="D115">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B116">
         <f>VLOOKUP(A116,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="D116">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B117">
         <f>VLOOKUP(A117,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="B118">
         <f>VLOOKUP(A118,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="B119">
         <f>VLOOKUP(A119,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D119">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B120">
         <f>VLOOKUP(A120,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <f>VLOOKUP(C120,'genre lookup'!$A$1:$B$29,2,FALSE)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B121">
         <f>VLOOKUP(A121,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D121">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B122">
         <f>VLOOKUP(A122,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="D122">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B123">
         <f>VLOOKUP(A123,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D123">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B124">
         <f>VLOOKUP(A124,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="D124">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B125">
         <f>VLOOKUP(A125,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D125">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B126">
         <f>VLOOKUP(A126,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="1" t="s">
-        <v>134</v>
+      <c r="A127" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B127">
-        <f>VLOOKUP(A127,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>128</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>33</v>
+        <v>84</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D127">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="1" t="s">
-        <v>134</v>
+      <c r="A128" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B128">
-        <f>VLOOKUP(A128,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>128</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>28</v>
+        <v>84</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="D128">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B129">
         <f>VLOOKUP(A129,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>33</v>
@@ -2991,26 +3000,26 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B130">
         <f>VLOOKUP(A130,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="D130">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B131">
         <f>VLOOKUP(A131,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>33</v>
@@ -3021,71 +3030,70 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B132">
         <f>VLOOKUP(A132,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D132">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="1" t="s">
-        <v>137</v>
+      <c r="A133" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="B133">
-        <f>VLOOKUP(A133,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>132</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>26</v>
+        <v>85</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D133">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B134">
         <f>VLOOKUP(A134,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="D134">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B135">
         <f>VLOOKUP(A135,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B136">
         <f>VLOOKUP(A136,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>99</v>
@@ -3096,221 +3104,215 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="B137">
         <f>VLOOKUP(A137,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D137">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="B138">
-        <f>VLOOKUP(A138,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D138">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="B139">
-        <f>VLOOKUP(A139,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D139">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B140">
         <f>VLOOKUP(A140,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D140">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B141">
         <f>VLOOKUP(A141,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="D141">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B142">
         <f>VLOOKUP(A142,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="D142">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B143">
         <f>VLOOKUP(A143,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B144">
         <f>VLOOKUP(A144,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D144">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B145">
         <f>VLOOKUP(A145,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="D145">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B146">
         <f>VLOOKUP(A146,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D146">
-        <v>8</v>
+        <f>VLOOKUP(C146,'genre lookup'!$A$1:$B$29,2,FALSE)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1" t="s">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="B147">
-        <f>VLOOKUP(A147,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>138</v>
+        <v>6</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D147">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="B148">
-        <f>VLOOKUP(A148,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>138</v>
+        <v>6</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D148">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="B149">
-        <f>VLOOKUP(A149,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="D149">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="B150">
-        <f>VLOOKUP(A150,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="D150">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="B151">
-        <f>VLOOKUP(A151,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>28</v>
@@ -3321,26 +3323,25 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="B152">
-        <f>VLOOKUP(A152,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D152">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B153">
         <f>VLOOKUP(A153,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>31</v>
@@ -3351,28 +3352,27 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B154">
         <f>VLOOKUP(A154,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="D154">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="1" t="s">
-        <v>146</v>
+      <c r="A155" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="B155">
-        <f>VLOOKUP(A155,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>143</v>
-      </c>
-      <c r="C155" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C155" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D155">
@@ -3381,129 +3381,38 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B156">
         <f>VLOOKUP(A156,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D156">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B157">
         <f>VLOOKUP(A157,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="D157">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B158">
-        <f>VLOOKUP(A158,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>146</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D158">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B159">
-        <f>VLOOKUP(A159,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>148</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D159">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B160">
-        <f>VLOOKUP(A160,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>148</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D160">
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B161">
-        <f>VLOOKUP(A161,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>148</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D161">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B162">
-        <f>VLOOKUP(A162,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>135</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D162">
-        <f>VLOOKUP(C162,'genre lookup'!$A$1:$B$29,2,FALSE)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B163">
-        <f>VLOOKUP(A163,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>144</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D163">
-        <f>VLOOKUP(C163,'genre lookup'!$A$1:$B$29,2,FALSE)</f>
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:D58">
-    <sortCondition ref="A56"/>
+  <sortState ref="A2:D161">
+    <sortCondition ref="A2:A161"/>
+    <sortCondition ref="C2:C161"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -4751,7 +4660,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B14">
         <v>14</v>
@@ -4759,7 +4668,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -4767,7 +4676,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -4775,7 +4684,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -4783,7 +4692,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B18">
         <v>18</v>
@@ -4791,7 +4700,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -4799,7 +4708,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -4807,7 +4716,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -4815,7 +4724,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B22">
         <v>22</v>
@@ -4823,7 +4732,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B23">
         <v>23</v>
@@ -4831,7 +4740,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -4839,7 +4748,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -4847,7 +4756,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -4855,7 +4764,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -4863,7 +4772,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -4871,7 +4780,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B29">
         <v>29</v>

--- a/production/data/genres.xlsx
+++ b/production/data/genres.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25620" windowHeight="16060"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25660" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="177">
   <si>
     <t>poetid</t>
   </si>
@@ -549,13 +549,19 @@
   </si>
   <si>
     <t>Hyporchema</t>
+  </si>
+  <si>
+    <t>Pindar</t>
+  </si>
+  <si>
+    <t>Other unclassified melic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,6 +597,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -609,7 +620,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="72">
+  <cellStyleXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -682,8 +693,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -699,8 +714,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="72">
+  <cellStyles count="76">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -737,6 +753,8 @@
     <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -772,6 +790,8 @@
     <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1050,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:F177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A78" activeCellId="3" sqref="A71:XFD71 A73:XFD73 A75:XFD75 A78:XFD78"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D169" sqref="D169:D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3407,6 +3427,295 @@
       </c>
       <c r="D157">
         <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B158">
+        <v>149</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B159">
+        <v>149</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B160">
+        <v>149</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D160">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B161">
+        <v>149</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D161">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B162">
+        <v>149</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B163">
+        <v>149</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D163">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B164">
+        <v>149</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D164">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B165">
+        <v>149</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D165">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B166">
+        <v>149</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D166">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B167">
+        <v>149</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B168">
+        <v>149</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D168">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="28">
+      <c r="A169" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B169">
+        <f>VLOOKUP(A169,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>92</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D169">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="28">
+      <c r="A170" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B170">
+        <f>VLOOKUP(A170,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>94</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D170">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="28">
+      <c r="A171" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B171">
+        <f>VLOOKUP(A171,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>104</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D171">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="28">
+      <c r="A172" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B172">
+        <f>VLOOKUP(A172,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>117</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D172">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="28">
+      <c r="A173" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B173">
+        <f>VLOOKUP(A173,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>123</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D173">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="28">
+      <c r="A174" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B174">
+        <f>VLOOKUP(A174,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>132</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D174">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="28">
+      <c r="A175" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B175">
+        <f>VLOOKUP(A175,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>135</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D175">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="28">
+      <c r="A176" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B176">
+        <f>VLOOKUP(A176,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>138</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D176">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="28">
+      <c r="A177" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B177">
+        <f>VLOOKUP(A177,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>147</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D177">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3428,7 +3737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A105" workbookViewId="0">
       <selection sqref="A1:B137"/>
     </sheetView>
   </sheetViews>
@@ -4543,10 +4852,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4784,6 +5093,14 @@
       </c>
       <c r="B29">
         <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="42">
+      <c r="A30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/production/data/genres.xlsx
+++ b/production/data/genres.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="177">
   <si>
     <t>poetid</t>
   </si>
@@ -1062,7 +1062,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1070,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F177"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D169" sqref="D169:D177"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146:XFD146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3257,18 +3257,16 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="B146">
-        <f>VLOOKUP(A146,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="D146">
-        <f>VLOOKUP(C146,'genre lookup'!$A$1:$B$29,2,FALSE)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3279,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3293,10 +3291,10 @@
         <v>6</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3307,10 +3305,10 @@
         <v>6</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D149">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3321,10 +3319,10 @@
         <v>6</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D150">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3335,50 +3333,50 @@
         <v>6</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D151">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B152">
+        <f>VLOOKUP(A152,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>146</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D152">
         <v>8</v>
-      </c>
-      <c r="B152">
-        <v>6</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D152">
-        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B153">
         <f>VLOOKUP(A153,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D153">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="1" t="s">
-        <v>148</v>
+      <c r="A154" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="B154">
-        <f>VLOOKUP(A154,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>145</v>
-      </c>
-      <c r="C154" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C154" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D154">
@@ -3386,13 +3384,14 @@
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="4" t="s">
-        <v>49</v>
+      <c r="A155" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="B155">
-        <v>90</v>
-      </c>
-      <c r="C155" s="4" t="s">
+        <f>VLOOKUP(A155,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>148</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D155">
@@ -3408,25 +3407,24 @@
         <v>148</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="B157">
-        <f>VLOOKUP(A157,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>148</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>99</v>
+        <v>149</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="D157">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3436,11 +3434,11 @@
       <c r="B158">
         <v>149</v>
       </c>
-      <c r="C158" s="9" t="s">
-        <v>25</v>
+      <c r="C158" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3451,10 +3449,10 @@
         <v>149</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="D159">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3465,10 +3463,10 @@
         <v>149</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="D160">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3479,10 +3477,10 @@
         <v>149</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="D161">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3493,10 +3491,10 @@
         <v>149</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D162">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3507,10 +3505,10 @@
         <v>149</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D163">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3521,10 +3519,10 @@
         <v>149</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="D164">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3535,10 +3533,10 @@
         <v>149</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="D165">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3549,10 +3547,10 @@
         <v>149</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
       <c r="D166">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3563,33 +3561,34 @@
         <v>149</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="D167">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="28">
       <c r="A168" s="1" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="B168">
-        <v>149</v>
+        <f>VLOOKUP(A168,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>92</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="D168">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="28">
       <c r="A169" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B169">
         <f>VLOOKUP(A169,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>176</v>
@@ -3600,11 +3599,11 @@
     </row>
     <row r="170" spans="1:4" ht="28">
       <c r="A170" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B170">
         <f>VLOOKUP(A170,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>176</v>
@@ -3615,11 +3614,11 @@
     </row>
     <row r="171" spans="1:4" ht="28">
       <c r="A171" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B171">
         <f>VLOOKUP(A171,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>176</v>
@@ -3630,11 +3629,11 @@
     </row>
     <row r="172" spans="1:4" ht="28">
       <c r="A172" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B172">
         <f>VLOOKUP(A172,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>176</v>
@@ -3645,11 +3644,11 @@
     </row>
     <row r="173" spans="1:4" ht="28">
       <c r="A173" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B173">
         <f>VLOOKUP(A173,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>176</v>
@@ -3660,11 +3659,11 @@
     </row>
     <row r="174" spans="1:4" ht="28">
       <c r="A174" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B174">
         <f>VLOOKUP(A174,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>176</v>
@@ -3675,11 +3674,11 @@
     </row>
     <row r="175" spans="1:4" ht="28">
       <c r="A175" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B175">
         <f>VLOOKUP(A175,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>176</v>
@@ -3690,31 +3689,16 @@
     </row>
     <row r="176" spans="1:4" ht="28">
       <c r="A176" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B176">
         <f>VLOOKUP(A176,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D176">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="28">
-      <c r="A177" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B177">
-        <f>VLOOKUP(A177,'poet lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>147</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D177">
         <v>30</v>
       </c>
     </row>
